--- a/period.xlsx
+++ b/period.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\soft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F7C39-8E36-44EA-87CB-331C8F4FB038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756DD0B-A912-4155-8BDF-4D73629B8D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="26625" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="3525" windowWidth="26625" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Period (sec)</t>
+  </si>
+  <si>
+    <t>sae-gez</t>
+  </si>
+  <si>
+    <t>sae-ilica</t>
+  </si>
+  <si>
+    <t>sae-yarimca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,8 +76,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,582 +370,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A114"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="2">
+        <v>0.46714965034965039</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.40455094339622644</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.55951764705882356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1.0641199976623413E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="2">
+        <v>0.46999334982639557</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.40776662176955669</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.56600131035185675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1.1323499960673484E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="2">
+        <v>0.47301932639901484</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.41118842055749077</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.57290056724939831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1.2049500069254503E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="2">
+        <v>0.47623911149595244</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.41482937959260091</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.58024170952381471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1.2822099966348397E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="2">
+        <v>0.4796655650255815</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.41870404096330954</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.58805405789501697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1.3644200058629128E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="2">
+        <v>0.48331155019008809</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.42282695048270991</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5963669405928439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1.4518999977161615E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="2">
+        <v>0.48719125724136991</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.4272141546024445</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.60521271153376943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1.54500000224025E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="2">
+        <v>0.4913202098895641</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.43188320765952048</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6146267649324112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1.6440599923409821E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" s="2">
+        <v>0.49571348581417135</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.43685115961589305</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6246434780490675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1.7494699849470354E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" s="2">
+        <v>0.50038838212960912</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.44213757018847588</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.63530228847787962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>1.8616499915574174E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="2">
+        <v>0.50536352619900093</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.4477635033501815</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.64664566679336477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1.9810099985338545E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" s="2">
+        <v>0.51065710077413784</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.45374952030382998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.65871506985174677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2.1080300027478172E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B14" s="2">
+        <v>0.51629039354843809</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.46011969334535285</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.67155903380726456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2.2431900171942756E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B15" s="2">
+        <v>0.52228469293039226</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.46689809557929035</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.68522609644452692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2.3870200153299197E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B16" s="2">
+        <v>0.52866350305749898</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.47411130567447035</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.69976984743247839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2.5400699850242552E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B17" s="2">
+        <v>0.5354512156994673</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.48178690604140517</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.71524590025039381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2.7029299679764963E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B18" s="2">
+        <v>0.54267399899934921</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.48995448782795337</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.73171391852656442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2.8762400225750329E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B19" s="2">
+        <v>0.55036023932287315</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.49864615056612144</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.74923862345920478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3.0606599541904905E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B20" s="2">
+        <v>0.55853919880752512</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.50789498411770428</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.76788673301490906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3.2568999705706522E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B21" s="2">
+        <v>0.56724237491859497</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.51773660607126037</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.78773006173005589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>3.4657200260358748E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B22" s="2">
+        <v>0.57650347136447222</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.52820912885289351</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.80884545439739219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3.6879399458809567E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B23" s="2">
+        <v>0.58635884711032882</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.53935366747455815</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.83131580982172726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>3.9244000436079333E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B24" s="2">
+        <v>0.59684576976616444</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.55121236445112998</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.85522609852717857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>4.1760300219809518E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B25" s="2">
+        <v>0.60800547132449789</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.56383184525330887</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.88067032986972082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>4.4437800499516428E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B26" s="2">
+        <v>0.61988009144610712</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.57725976175040505</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.90774458269805136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>4.7287098939790141E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B27" s="2">
+        <v>0.6325166304029014</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.59154926223011739</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.93655601810293665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>5.0318999815278952E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B28" s="2">
+        <v>0.64596300477517421</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.60675453114907818</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.9672138863674381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>5.3545398814429913E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B29" s="3">
+        <v>0.66027197152525485</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.62293522650708433</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.99983847389414704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>5.6978599236976783E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B30" s="3">
+        <v>0.67549809535727745</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.64015305051298921</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.0345541887550769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>6.0631900819791799E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B31" s="3">
+        <v>0.69170036013924452</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.65847470260189922</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.0714955147601299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>6.4519500696488014E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B32" s="3">
+        <v>0.7089417296623266</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.67797138273823621</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.1108060099838992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>6.8656298741681096E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B33" s="3">
+        <v>0.72728828434946957</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.6987178151988459</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>7.3058399962594098E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B34" s="3">
+        <v>0.74681144934459565</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.72079476811429266</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>7.774280301831768E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B35" s="3">
+        <v>0.76758661310641307</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.74428749136356298</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>8.2727499175000024E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B36" s="3">
+        <v>0.78969356627122378</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.76928621284367937</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>8.80318034256872E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B37" s="3">
+        <v>0.81321797015783781</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.79588779906693696</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>9.3676200718121758E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="3">
+        <v>0.83825067479323645</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.82419498397880697</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>9.9682501265220144E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B39" s="3">
+        <v>0.86488840770910913</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.85431714785463231</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>0.10607399870653365</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B40" s="3">
+        <v>0.89323447538240308</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>0.11287499613403137</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B41" s="3">
+        <v>0.92339666117624264</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>0.12011199723069778</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B42" s="3">
+        <v>0.9554925079979617</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>0.12781400097573209</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B43" s="3">
+        <v>0.98965062530635861</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>0.13600899291461152</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B44" s="3">
+        <v>1.0259951280171093</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>0.14472999028282846</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B45" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>0.15400900059401271</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B46" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>0.1638839983172391</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B47" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>0.1743919997321339</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B48" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>0.18557299838644276</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B49" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>0.19747200291310696</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B50" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>0.21013400665872642</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B51" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>0.2236069955001328</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B52" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>0.23794397371194975</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B53" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>0.2532000049627201</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B54" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>0.269435021702991</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="B55" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>0.28671097498074016</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="B56" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>0.30509403303192079</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="B57" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>0.32465603504726831</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B58" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>0.34547195095956562</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="B59" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.1526363384526459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>0.36762300114183699</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="B60" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.0608694200000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>0.39119406511659932</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="B61" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.99694764000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>0.41627692739339461</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="B62" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.93687633000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>0.44296690372778796</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="B63" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.88042695000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>0.47136904425212589</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="B64" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.82737720000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>0.5015930595571535</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="B65" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.77752272000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>0.53375407387796892</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="B66" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.8863711104942763</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.73067357999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>0.56797689469992363</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="B67" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.83101971999999991</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.68664764999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>0.60439394397268142</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="B68" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.78094759999999996</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.64527449999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>0.64314596133277857</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="B69" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.73389250399999995</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.60639422999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>0.6843839996495954</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="B70" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.68967129599999999</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.56985552000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>0.72826475628255805</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="B71" s="3">
+        <v>1.0646724464151736</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.64811594399999994</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.53551952999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>0.77495890780391363</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="B72" s="3">
+        <v>0.97424520500000011</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.60906455199999998</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.50325249000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>0.82464773110546497</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="B73" s="3">
+        <v>0.91554244500000004</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.57236560800000003</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.47292921000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>0.87752320829505148</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="B74" s="3">
+        <v>0.86037610499999995</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.53787751199999989</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.44443268999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>0.93378790128367817</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="B75" s="3">
+        <v>0.80853478500000009</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.50546810399999997</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.41765373000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>0.99366044635227246</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="B76" s="3">
+        <v>0.75981690000000002</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.47501135999999999</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.39248820000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>1.0573697082611238</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="B77" s="3">
+        <v>0.71403596499999999</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.44639069599999998</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.36883977000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>1.1251694786527222</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="B78" s="3">
+        <v>0.67101002499999995</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.4194923599999999</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.34661444999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>1.1973094063021579</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B79" s="3">
+        <v>0.63058052999999992</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.39421723199999997</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.32573034000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>1.2740801141575782</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B80" s="3">
+        <v>0.59258440000000001</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.37046336000000002</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.30610320000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>1.3557704301046112</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B81" s="3">
+        <v>0.55687894000000004</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.34814153599999997</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.28765932000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>1.4426995794530726</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="B82" s="3">
+        <v>0.52332447500000001</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.32716444</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.27032655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>1.5351998292857789</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="B83" s="3">
+        <v>0.49179265500000002</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.30745183199999998</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.25403859000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>1.6336399130903567</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="B84" s="3">
+        <v>0.46215814999999999</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.28892535999999996</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.23873069999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>1.7383806636442023</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="B85" s="3">
+        <v>0.43431223999999996</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.27151705599999998</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.22434672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>1.8498410061655199</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="B86" s="3">
+        <v>0.40814318500000002</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.25515706399999999</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.21082893000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>1.9684496883944145</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B87" s="3">
+        <v>0.38355056999999998</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.23978260799999998</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.19812546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>2.0946619634523382</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="B88" s="3">
+        <v>0.36044001999999997</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.22533468799999998</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.18618756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>2.2289685670852672</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="B89" s="3">
+        <v>0.33872168999999996</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.21175713599999996</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.17496882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>2.3718827530917492</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="B90" s="3">
+        <v>0.31831252999999998</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.19899803199999999</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.16442634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>2.5239586777485279</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="B91" s="3">
+        <v>0.29913326499999998</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.18700781599999999</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.15451917000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>2.6857967013044912</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="B92" s="3">
+        <v>0.28110839500000001</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.17573928799999999</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.14520831000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>2.8580002572200232</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="B93" s="3">
+        <v>0.264170725</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.16515043999999998</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.13645905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>3.0412515358320258</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="B94" s="3">
+        <v>0.24825306</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.15519926399999998</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.12823667999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>3.2362459546925568</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="B95" s="3">
+        <v>0.23329499999999997</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.14584799999999998</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.12050999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>3.4437514851178279</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="B96" s="3">
+        <v>0.219237655</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.13705983199999999</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.11324859000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>3.6645607657466175</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="B97" s="3">
+        <v>0.20602742000000002</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.12880124800000001</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.10642476000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>3.899517239765717</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="B98" s="3">
+        <v>0.19361370999999999</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.121040624</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.10001238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>4.1495497738495368</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="B99" s="3">
+        <v>0.18194745000000001</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.11374728000000001</v>
+      </c>
+      <c r="D99" s="3">
+        <v>9.3986100000000017E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>4.4156153822377453</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="B100" s="3">
+        <v>0.170984095</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.106893368</v>
+      </c>
+      <c r="D100" s="3">
+        <v>8.8322910000000004E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>4.6987402677342205</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="B101" s="3">
+        <v>0.16068136499999999</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.100452456</v>
+      </c>
+      <c r="D101" s="3">
+        <v>8.3000970000000007E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="B102" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="C102" s="3">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="D102" s="3">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>5.320592288333537</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="B103" s="3">
+        <v>0.14190149500000002</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8.8711927999999995E-2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>7.3300110000000002E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>5.6617447232539178</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="B104" s="3">
+        <v>0.13335112000000002</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8.3366527999999995E-2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>6.8883360000000005E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>6.0247496716511435</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="B105" s="3">
+        <v>0.12531640999999999</v>
+      </c>
+      <c r="C105" s="3">
+        <v>7.8343503999999994E-2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>6.4732979999999996E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>6.411037241715337</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="B106" s="3">
+        <v>0.11021522779533002</v>
+      </c>
+      <c r="C106" s="3">
+        <v>6.8902764926352E-2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>5.6932369324740002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>6.8221200420242596</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="B107" s="3">
+        <v>9.7332860739720001E-2</v>
+      </c>
+      <c r="C107" s="3">
+        <v>6.0849152674367996E-2</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5.027790157415999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>7.259528130671506</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="B108" s="3">
+        <v>8.5957033125000012E-2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>5.3737377000000003E-2</v>
+      </c>
+      <c r="D108" s="3">
+        <v>4.4401646250000003E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>7.7249903437620695</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B109" s="3">
+        <v>7.5910580325000018E-2</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4.7456680680000009E-2</v>
+      </c>
+      <c r="D109" s="3">
+        <v>3.9212087850000008E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>8.2203041512535968</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B110" s="3">
+        <v>6.7038212924999993E-2</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4.1909982119999994E-2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3.4629010649999993E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>8.7473757872638203</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B111" s="3">
+        <v>5.9202852672000011E-2</v>
+      </c>
+      <c r="C111" s="3">
+        <v>3.7011584716800001E-2</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3.0581606016000001E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>9.3082135676520963</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="B112" s="3">
+        <v>5.2283604846720004E-2</v>
+      </c>
+      <c r="C112" s="3">
+        <v>3.2685909255167997E-2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.700742502016E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>9.9050109450370947</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B113" s="3">
+        <v>4.6173020154930002E-2</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2.8865782136591998E-2</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2.3850964053539998E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>10</v>
+      </c>
+      <c r="B114" s="3">
+        <v>4.53E-2</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2.8319999999999998E-2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.3399999999999997E-2</v>
       </c>
     </row>
   </sheetData>
